--- a/Docs importantes/Experimento 5/distintosPorcentajesLsPareto.xlsx
+++ b/Docs importantes/Experimento 5/distintosPorcentajesLsPareto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98CE42-F121-4AD0-8C50-9AF0B975760A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8653DCBD-52C1-4FB5-82CF-CCB1CAD522D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBD9EF8C-17CB-497A-9932-921DD8E6FC70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBD9EF8C-17CB-497A-9932-921DD8E6FC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -774,7 +774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="998865568"/>
@@ -836,7 +836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="998866400"/>
@@ -878,7 +878,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -915,7 +915,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1822,86 +1822,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAD21E8-3BD9-4AE9-9EFA-5190C7624CEF}">
   <dimension ref="A2:BS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>106</v>
@@ -1928,7 +1928,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>51.965000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>321.56</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>944.58299999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>1471.086</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>2447.712</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>2941.5940000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>3450.645</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>4303.5839999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4270.2</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>6205.7449999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>142.62746318248099</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>94.275691591921102</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>279.91546336707199</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>153.50856030925101</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>183.53049621957001</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>110.948030145977</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>484.72168614871498</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>106.08630499112699</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>86.333880354429198</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>93.564461043580593</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>169.70909186167401</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>272.69131310121003</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>74.076474024254793</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>410.03985173263402</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>449.678167015665</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>144.328405069773</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>31.951529558751901</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>35.508168824527203</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>32.994842668616599</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>16.716921517521801</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>1695.39430350723</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>8.7184570094727398</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>7.4594871989274001</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>

--- a/Docs importantes/Experimento 5/distintosPorcentajesLsPareto.xlsx
+++ b/Docs importantes/Experimento 5/distintosPorcentajesLsPareto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8653DCBD-52C1-4FB5-82CF-CCB1CAD522D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB35F5-193E-44BB-BA59-44641FDB7D78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBD9EF8C-17CB-497A-9932-921DD8E6FC70}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>GRASPConstructive_Criterion1_Seed_13_SolCount_700_LSforParetoConcurrent_LS_Swap_10%_10%</t>
   </si>
@@ -334,21 +334,6 @@
   </si>
   <si>
     <t>GKD-c_1_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-a_9_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-b_12_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_18_n50_m15.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_33_n125_m12.txt</t>
-  </si>
-  <si>
-    <t>SOM-b_2_n100_m20.txt</t>
   </si>
   <si>
     <t>Time(s)</t>
@@ -554,34 +539,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.81383147028913128</c:v>
+                  <c:v>0.77362068109610671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85844211329172371</c:v>
+                  <c:v>0.82928561348424756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85931432407784725</c:v>
+                  <c:v>0.83285094501343515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81655500686993132</c:v>
+                  <c:v>0.77534731031403559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81686021257850738</c:v>
+                  <c:v>0.78712173980713851</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76775263780886049</c:v>
+                  <c:v>0.73608956684015436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70839463354862042</c:v>
+                  <c:v>0.71391620433707137</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65434136516664809</c:v>
+                  <c:v>0.60787853389655433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60869174651123081</c:v>
+                  <c:v>0.55311551457149433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49777094262031835</c:v>
+                  <c:v>0.47468914347292784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,34 +654,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.36816981564676476</c:v>
+                  <c:v>0.4289094460522202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37975915202739552</c:v>
+                  <c:v>0.44194044010075934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39680903674572404</c:v>
+                  <c:v>0.45871020655259021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41814321325819309</c:v>
+                  <c:v>0.47915373121188659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43135174050530622</c:v>
+                  <c:v>0.48753547425467075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44746953317973387</c:v>
+                  <c:v>0.5039107799907615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45851362761395498</c:v>
+                  <c:v>0.50308841369504043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46721675842209459</c:v>
+                  <c:v>0.51484869348907636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47295919874455244</c:v>
+                  <c:v>0.52465753703601958</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47731508075462686</c:v>
+                  <c:v>0.52343566796317997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAD21E8-3BD9-4AE9-9EFA-5190C7624CEF}">
   <dimension ref="A2:BS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,28 +1889,28 @@
     <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.25">
@@ -1934,31 +1919,31 @@
       </c>
       <c r="B3" s="4">
         <f>AVERAGE(B15:B38)</f>
-        <v>0.81383147028913128</v>
+        <v>0.77362068109610671</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C15:C38)</f>
-        <v>0.36816981564676476</v>
+        <v>0.4289094460522202</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>0.21811221808143558</v>
+        <v>0.18702955471517585</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>2161.8349079171703</v>
+        <v>1981.4879725070234</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>780.875</v>
+        <v>762.63157894736844</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
-        <v>0.9436606307129608</v>
+        <v>0.9442983871620203</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="0"/>
-        <v>301.58722833770156</v>
+        <v>223.45649594319676</v>
       </c>
       <c r="I3" s="4">
         <v>51.965000000000003</v>
@@ -1970,31 +1955,31 @@
       </c>
       <c r="B4" s="4">
         <f>AVERAGE(I15:I38)</f>
-        <v>0.85844211329172371</v>
+        <v>0.82928561348424756</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J15:J38)</f>
-        <v>0.37975915202739552</v>
+        <v>0.44194044010075934</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="1"/>
-        <v>0.19660461100558579</v>
+        <v>0.1547166981414437</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>1350.0288047249012</v>
+        <v>1201.6193503329239</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>1973.0833333333333</v>
+        <v>2028</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>0.91538582105866961</v>
+        <v>0.91174521899339489</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="1"/>
-        <v>274.61816436493251</v>
+        <v>205.25121859564953</v>
       </c>
       <c r="I4" s="4">
         <v>321.56</v>
@@ -2006,31 +1991,31 @@
       </c>
       <c r="B5" s="4">
         <f>AVERAGE(P15:P38)</f>
-        <v>0.85931432407784725</v>
+        <v>0.83285094501343515</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:H5" si="2">AVERAGE(Q15:Q38)</f>
-        <v>0.39680903674572404</v>
+        <v>0.45871020655259021</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="2"/>
-        <v>0.18053827825701976</v>
+        <v>0.14903171452709976</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="2"/>
-        <v>1216.1209808707397</v>
+        <v>1100.3698791772506</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>2643.0416666666665</v>
+        <v>2706.7368421052633</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="2"/>
-        <v>0.90207669620911879</v>
+        <v>0.8986611783592704</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="2"/>
-        <v>259.13087410956217</v>
+        <v>199.78055575061674</v>
       </c>
       <c r="I5" s="4">
         <v>944.58299999999997</v>
@@ -2042,31 +2027,31 @@
       </c>
       <c r="B6" s="4">
         <f>AVERAGE(W15:W38)</f>
-        <v>0.81655500686993132</v>
+        <v>0.77534731031403559</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ref="C6:H6" si="3">AVERAGE(X15:X38)</f>
-        <v>0.41814321325819309</v>
+        <v>0.47915373121188659</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="3"/>
-        <v>0.1602430987309599</v>
+        <v>0.12933522113601717</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="3"/>
-        <v>1120.220616601647</v>
+        <v>981.72120253386367</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="3"/>
-        <v>3527.4166666666665</v>
+        <v>3747.2105263157896</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="3"/>
-        <v>0.88983595611464938</v>
+        <v>0.88551319990044886</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>245.22606714860433</v>
+        <v>188.84479456932814</v>
       </c>
       <c r="I6" s="4">
         <v>1471.086</v>
@@ -2078,31 +2063,31 @@
       </c>
       <c r="B7" s="4">
         <f>AVERAGE(AD15:AD38)</f>
-        <v>0.81686021257850738</v>
+        <v>0.78712173980713851</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7:H7" si="4">AVERAGE(AE15:AE38)</f>
-        <v>0.43135174050530622</v>
+        <v>0.48753547425467075</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="4"/>
-        <v>0.14767452057349575</v>
+        <v>0.11333789106468398</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="4"/>
-        <v>1047.066500986318</v>
+        <v>906.22802226361841</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="4"/>
-        <v>3750</v>
+        <v>4013.8421052631579</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="4"/>
-        <v>0.88606046882953404</v>
+        <v>0.88138776437186628</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="4"/>
-        <v>241.63586603834335</v>
+        <v>187.45175048450312</v>
       </c>
       <c r="I7" s="4">
         <v>2447.712</v>
@@ -2114,31 +2099,31 @@
       </c>
       <c r="B8" s="4">
         <f>AVERAGE(AK15:AK38)</f>
-        <v>0.76775263780886049</v>
+        <v>0.73608956684015436</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:H8" si="5">AVERAGE(AL15:AL38)</f>
-        <v>0.44746953317973387</v>
+        <v>0.5039107799907615</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="5"/>
-        <v>0.12821642526393834</v>
+        <v>9.9449687091996419E-2</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="5"/>
-        <v>973.08210345228997</v>
+        <v>878.93866965772986</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="5"/>
-        <v>4342.583333333333</v>
+        <v>4425.2631578947367</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>0.87622321056976704</v>
+        <v>0.87213265372993176</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="5"/>
-        <v>225.34364601395518</v>
+        <v>182.64779073990144</v>
       </c>
       <c r="I8" s="4">
         <v>2941.5940000000001</v>
@@ -2150,31 +2135,31 @@
       </c>
       <c r="B9" s="4">
         <f>AVERAGE(AR15:AR38)</f>
-        <v>0.70839463354862042</v>
+        <v>0.71391620433707137</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:H9" si="6">AVERAGE(AS15:AS38)</f>
-        <v>0.45851362761395498</v>
+        <v>0.50308841369504043</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="6"/>
-        <v>0.14155244793517943</v>
+        <v>0.11112020772822523</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="6"/>
-        <v>909.03516042624949</v>
+        <v>818.89497386365576</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="6"/>
-        <v>4539.291666666667</v>
+        <v>4561.5263157894733</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="6"/>
-        <v>0.87465113813801443</v>
+        <v>0.87043042101674239</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="6"/>
-        <v>217.60274530642764</v>
+        <v>180.32783612123379</v>
       </c>
       <c r="I9" s="4">
         <v>3450.645</v>
@@ -2186,31 +2171,31 @@
       </c>
       <c r="B10" s="4">
         <f>AVERAGE(AY15:AY38)</f>
-        <v>0.65434136516664809</v>
+        <v>0.60787853389655433</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ref="C10:H10" si="7">AVERAGE(AZ15:AZ38)</f>
-        <v>0.46721675842209459</v>
+        <v>0.51484869348907636</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="7"/>
-        <v>0.13014185548784649</v>
+        <v>9.9261295446658002E-2</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="7"/>
-        <v>885.40779527652194</v>
+        <v>790.04530194620168</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="7"/>
-        <v>4848</v>
+        <v>4933.7894736842109</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="7"/>
-        <v>0.87054811494057371</v>
+        <v>0.86355604658507468</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="7"/>
-        <v>218.55917001198296</v>
+        <v>177.30931265913773</v>
       </c>
       <c r="I10" s="4">
         <v>4303.5839999999998</v>
@@ -2222,31 +2207,31 @@
       </c>
       <c r="B11" s="4">
         <f>AVERAGE(BF15:BF38)</f>
-        <v>0.60869174651123081</v>
+        <v>0.55311551457149433</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:H11" si="8">AVERAGE(BG15:BG38)</f>
-        <v>0.47295919874455244</v>
+        <v>0.52465753703601958</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="8"/>
-        <v>0.10772288556377964</v>
+        <v>7.5675867740681232E-2</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="8"/>
-        <v>873.71286025976485</v>
+        <v>745.79859562227398</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="8"/>
-        <v>5144.166666666667</v>
+        <v>5485.6315789473683</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="8"/>
-        <v>0.87331704781944508</v>
+        <v>0.86581227485072831</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="8"/>
-        <v>230.04473180037701</v>
+        <v>180.62018311532884</v>
       </c>
       <c r="I11" s="4">
         <v>4270.2</v>
@@ -2258,31 +2243,31 @@
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(BM15:BM38)</f>
-        <v>0.49777094262031835</v>
+        <v>0.47468914347292784</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12:H12" si="9">AVERAGE(BN15:BN38)</f>
-        <v>0.47731508075462686</v>
+        <v>0.52343566796317997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="9"/>
-        <v>0.11047016641508582</v>
+        <v>7.9409322344224528E-2</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="9"/>
-        <v>876.66966319543633</v>
+        <v>793.95151173871238</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="9"/>
-        <v>5368.583333333333</v>
+        <v>5517</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="9"/>
-        <v>0.86873925725870371</v>
+        <v>0.86229839566216848</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="9"/>
-        <v>212.27616662473108</v>
+        <v>176.65736216901215</v>
       </c>
       <c r="I12" s="4">
         <v>6205.7449999999999</v>
@@ -6589,1079 +6574,364 @@
       </c>
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.97498545666084901</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.15312208624658499</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.24137931034482701</v>
-      </c>
-      <c r="E34" s="1">
-        <v>164.36405224355801</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1719</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.90707355739532303</v>
-      </c>
-      <c r="H34" s="1">
-        <v>29.3508913041392</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.99210785925682299</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.14134274454585299</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.25530162880813501</v>
-      </c>
-      <c r="L34" s="1">
-        <v>124.419606767479</v>
-      </c>
-      <c r="M34" s="1">
-        <v>3041</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.88004438400611995</v>
-      </c>
-      <c r="O34" s="1">
-        <v>23.6137921675775</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.99327246516098</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0.17619317889151501</v>
-      </c>
-      <c r="R34" s="1">
-        <v>0.20689655172413701</v>
-      </c>
-      <c r="S34" s="1">
-        <v>106.92808172989</v>
-      </c>
-      <c r="T34" s="1">
-        <v>4162</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0.85282370394224905</v>
-      </c>
-      <c r="V34" s="1">
-        <v>23.509271365995101</v>
-      </c>
-      <c r="W34" s="1">
-        <v>0.99586107612020802</v>
-      </c>
-      <c r="X34" s="1">
-        <v>0.18851210462155199</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>0.165013730547316</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>93.338908616872203</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>5557</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>0.83001768909794704</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>20.600273801712301</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>0.99572150914041202</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>0.21787691871795101</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>0.139583333272112</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>97.260770778880698</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>5142</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>0.84460972429021397</v>
-      </c>
-      <c r="AJ34" s="1">
-        <v>20.144390196455198</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>0.94891375905200703</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>0.25039569046964399</v>
-      </c>
-      <c r="AM34" s="1">
-        <v>0.115309761727699</v>
-      </c>
-      <c r="AN34" s="1">
-        <v>80.727412343091004</v>
-      </c>
-      <c r="AO34" s="1">
-        <v>7595</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>0.80796190944258195</v>
-      </c>
-      <c r="AQ34" s="1">
-        <v>18.9623900864399</v>
-      </c>
-      <c r="AR34" s="1">
-        <v>0.40927899686520303</v>
-      </c>
-      <c r="AS34" s="1">
-        <v>0.29073975903800697</v>
-      </c>
-      <c r="AT34" s="1">
-        <v>0.126436781609195</v>
-      </c>
-      <c r="AU34" s="1">
-        <v>78.892145508007204</v>
-      </c>
-      <c r="AV34" s="1">
-        <v>7975</v>
-      </c>
-      <c r="AW34" s="1">
-        <v>0.79593180738068103</v>
-      </c>
-      <c r="AX34" s="1">
-        <v>19.218180900565201</v>
-      </c>
-      <c r="AY34" s="1">
-        <v>0.87000998003992003</v>
-      </c>
-      <c r="AZ34" s="1">
-        <v>0.26385589194175901</v>
-      </c>
-      <c r="BA34" s="1">
-        <v>0.13540687491831099</v>
-      </c>
-      <c r="BB34" s="1">
-        <v>78.6265192853607</v>
-      </c>
-      <c r="BC34" s="1">
-        <v>8016</v>
-      </c>
-      <c r="BD34" s="1">
-        <v>0.80511161312982804</v>
-      </c>
-      <c r="BE34" s="1">
-        <v>17.8370179505465</v>
-      </c>
-      <c r="BF34" s="1">
-        <v>0.91642532064542803</v>
-      </c>
-      <c r="BG34" s="1">
-        <v>0.266028263527534</v>
-      </c>
-      <c r="BH34" s="1">
-        <v>0.14942528735632099</v>
-      </c>
-      <c r="BI34" s="1">
-        <v>82.447559228544407</v>
-      </c>
-      <c r="BJ34" s="1">
-        <v>7251</v>
-      </c>
-      <c r="BK34" s="1">
-        <v>0.807329234943167</v>
-      </c>
-      <c r="BL34" s="1">
-        <v>19.972017713211699</v>
-      </c>
-      <c r="BM34" s="1">
-        <v>0.52874873353596696</v>
-      </c>
-      <c r="BN34" s="1">
-        <v>0.28161130035239301</v>
-      </c>
-      <c r="BO34" s="1">
-        <v>0.14942528735632099</v>
-      </c>
-      <c r="BP34" s="1">
-        <v>79.193331830418501</v>
-      </c>
-      <c r="BQ34" s="1">
-        <v>7896</v>
-      </c>
-      <c r="BR34" s="1">
-        <v>0.80509516902650702</v>
-      </c>
-      <c r="BS34" s="1">
-        <v>16.716921517521801</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
     </row>
     <row r="35" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.991876523151909</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.16514147399099999</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.22918119902555001</v>
-      </c>
-      <c r="E35" s="1">
-        <v>13639.9743931838</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2462</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.89290961126872004</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2926.1114598735999</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.98846355532249597</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.20491704478829501</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.20140867204694399</v>
-      </c>
-      <c r="L35" s="1">
-        <v>8980.8728907325403</v>
-      </c>
-      <c r="M35" s="1">
-        <v>5721</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.83029073399369901</v>
-      </c>
-      <c r="O35" s="1">
-        <v>2631.36820124727</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.994338651569737</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0.20424344518334001</v>
-      </c>
-      <c r="R35" s="1">
-        <v>0.17895114084338701</v>
-      </c>
-      <c r="S35" s="1">
-        <v>7752.9503957003999</v>
-      </c>
-      <c r="T35" s="1">
-        <v>7772</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0.79782821784484603</v>
-      </c>
-      <c r="V35" s="1">
-        <v>2364.4344254141301</v>
-      </c>
-      <c r="W35" s="1">
-        <v>0.99667178699436698</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0.19540397487555999</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>0.18205710189941399</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>7742.8037832034397</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>7812</v>
-      </c>
-      <c r="AB35" s="1">
-        <v>0.79627660511707699</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>2249.12928642527</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0.99646767926527702</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>0.225985759145819</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>0.16785189692945701</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>7450.7886203730404</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>8493</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>0.79361903009847501</v>
-      </c>
-      <c r="AJ35" s="1">
-        <v>2189.0087336500101</v>
-      </c>
-      <c r="AK35" s="1">
-        <v>0.98416398713826303</v>
-      </c>
-      <c r="AL35" s="1">
-        <v>0.26809113202413998</v>
-      </c>
-      <c r="AM35" s="1">
-        <v>0.14251582845538099</v>
-      </c>
-      <c r="AN35" s="1">
-        <v>6207.0661747808699</v>
-      </c>
-      <c r="AO35" s="1">
-        <v>12440</v>
-      </c>
-      <c r="AP35" s="1">
-        <v>0.75825611882833599</v>
-      </c>
-      <c r="AQ35" s="1">
-        <v>1893.4211575107799</v>
-      </c>
-      <c r="AR35" s="1">
-        <v>0.95830104951750295</v>
-      </c>
-      <c r="AS35" s="1">
-        <v>0.27417846372573501</v>
-      </c>
-      <c r="AT35" s="1">
-        <v>0.15888185401982999</v>
-      </c>
-      <c r="AU35" s="1">
-        <v>5810.6923824164396</v>
-      </c>
-      <c r="AV35" s="1">
-        <v>14197</v>
-      </c>
-      <c r="AW35" s="1">
-        <v>0.73354010164585604</v>
-      </c>
-      <c r="AX35" s="1">
-        <v>1751.3521184456399</v>
-      </c>
-      <c r="AY35" s="1">
-        <v>0.93876145209065198</v>
-      </c>
-      <c r="AZ35" s="1">
-        <v>0.28375432194193401</v>
-      </c>
-      <c r="BA35" s="1">
-        <v>0.124998922568596</v>
-      </c>
-      <c r="BB35" s="1">
-        <v>5752.22480405634</v>
-      </c>
-      <c r="BC35" s="1">
-        <v>14517</v>
-      </c>
-      <c r="BD35" s="1">
-        <v>0.73204259872284405</v>
-      </c>
-      <c r="BE35" s="1">
-        <v>1831.5256617207201</v>
-      </c>
-      <c r="BF35" s="1">
-        <v>0.99487265697234595</v>
-      </c>
-      <c r="BG35" s="1">
-        <v>0.25121461302133902</v>
-      </c>
-      <c r="BH35" s="1">
-        <v>0.129034860053829</v>
-      </c>
-      <c r="BI35" s="1">
-        <v>6322.32461431717</v>
-      </c>
-      <c r="BJ35" s="1">
-        <v>11897</v>
-      </c>
-      <c r="BK35" s="1">
-        <v>0.760708974747767</v>
-      </c>
-      <c r="BL35" s="1">
-        <v>2043.7606199290001</v>
-      </c>
-      <c r="BM35" s="1">
-        <v>4.1708291708291698E-2</v>
-      </c>
-      <c r="BN35" s="1">
-        <v>0.32596706994473801</v>
-      </c>
-      <c r="BO35" s="1">
-        <v>0.13964878748058701</v>
-      </c>
-      <c r="BP35" s="1">
-        <v>5520.9168072866296</v>
-      </c>
-      <c r="BQ35" s="1">
-        <v>16016</v>
-      </c>
-      <c r="BR35" s="1">
-        <v>0.735282646126457</v>
-      </c>
-      <c r="BS35" s="1">
-        <v>1695.39430350723</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
     </row>
     <row r="36" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.90476190476190399</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6.0907827698008302E-2</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.52941176470588203</v>
-      </c>
-      <c r="E36" s="1">
-        <v>127.027632421666</v>
-      </c>
-      <c r="F36" s="1">
-        <v>21</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.96641879283717103</v>
-      </c>
-      <c r="H36" s="1">
-        <v>12.5853205451762</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="J36" s="1">
-        <v>5.8128763316350099E-2</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="1">
-        <v>126.91196445990001</v>
-      </c>
-      <c r="M36" s="1">
-        <v>22</v>
-      </c>
-      <c r="N36" s="1">
-        <v>0.97971336809540399</v>
-      </c>
-      <c r="O36" s="1">
-        <v>8.7184570094727398</v>
-      </c>
-      <c r="P36" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>7.7019784291669405E-2</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0.41176470588235198</v>
-      </c>
-      <c r="S36" s="1">
-        <v>135.41389129188801</v>
-      </c>
-      <c r="T36" s="1">
-        <v>20</v>
-      </c>
-      <c r="U36" s="1">
-        <v>0.97907118586377595</v>
-      </c>
-      <c r="V36" s="1">
-        <v>12.6707205284038</v>
-      </c>
-      <c r="W36" s="1">
-        <v>1</v>
-      </c>
-      <c r="X36" s="1">
-        <v>9.6164450031981305E-2</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0.41176470588235298</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>102.026706683566</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>33</v>
-      </c>
-      <c r="AB36" s="1">
-        <v>0.96069097789914604</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>8.7184570094727398</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>0.110600145570039</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AG36" s="1">
-        <v>106.375878416356</v>
-      </c>
-      <c r="AH36" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>0.95218342894708297</v>
-      </c>
-      <c r="AJ36" s="1">
-        <v>11.5868858619948</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0.79411764705882304</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0.136416771432982</v>
-      </c>
-      <c r="AM36" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="AN36" s="1">
-        <v>102.905330205414</v>
-      </c>
-      <c r="AO36" s="1">
-        <v>34</v>
-      </c>
-      <c r="AP36" s="1">
-        <v>0.96212275844958295</v>
-      </c>
-      <c r="AQ36" s="1">
-        <v>8.9536446923855699</v>
-      </c>
-      <c r="AR36" s="1">
-        <v>0.72413793103448199</v>
-      </c>
-      <c r="AS36" s="1">
-        <v>0.20989655704801599</v>
-      </c>
-      <c r="AT36" s="1">
-        <v>0.41732283464566899</v>
-      </c>
-      <c r="AU36" s="1">
-        <v>111.30916713337</v>
-      </c>
-      <c r="AV36" s="1">
-        <v>29</v>
-      </c>
-      <c r="AW36" s="1">
-        <v>0.96404788216347803</v>
-      </c>
-      <c r="AX36" s="1">
-        <v>10.5887483658192</v>
-      </c>
-      <c r="AY36" s="1">
-        <v>0.68421052631578905</v>
-      </c>
-      <c r="AZ36" s="1">
-        <v>0.17948124131542301</v>
-      </c>
-      <c r="BA36" s="1">
-        <v>0.39370078740157399</v>
-      </c>
-      <c r="BB36" s="1">
-        <v>138.15588611484301</v>
-      </c>
-      <c r="BC36" s="1">
-        <v>19</v>
-      </c>
-      <c r="BD36" s="1">
-        <v>0.98435714119814</v>
-      </c>
-      <c r="BE36" s="1">
-        <v>9.7028478042595694</v>
-      </c>
-      <c r="BF36" s="1">
-        <v>0.74074074074074003</v>
-      </c>
-      <c r="BG36" s="1">
-        <v>0.17302984185800299</v>
-      </c>
-      <c r="BH36" s="1">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="BI36" s="1">
-        <v>116.72134077082301</v>
-      </c>
-      <c r="BJ36" s="1">
-        <v>27</v>
-      </c>
-      <c r="BK36" s="1">
-        <v>0.98182264960800003</v>
-      </c>
-      <c r="BL36" s="1">
-        <v>9.5910014158847208</v>
-      </c>
-      <c r="BM36" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="BN36" s="1">
-        <v>0.183958622819206</v>
-      </c>
-      <c r="BO36" s="1">
-        <v>0.36220472440944801</v>
-      </c>
-      <c r="BP36" s="1">
-        <v>90.516595331568794</v>
-      </c>
-      <c r="BQ36" s="1">
-        <v>44</v>
-      </c>
-      <c r="BR36" s="1">
-        <v>0.96674971316254299</v>
-      </c>
-      <c r="BS36" s="1">
-        <v>8.7184570094727398</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
     </row>
     <row r="37" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.96153846153846101</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.14893892339544501</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.34782608695652101</v>
-      </c>
-      <c r="E37" s="1">
-        <v>83.998065261010296</v>
-      </c>
-      <c r="F37" s="1">
-        <v>26</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.95387793250195496</v>
-      </c>
-      <c r="H37" s="1">
-        <v>6.6001372792386999</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.19091502385453199</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="L37" s="1">
-        <v>111.528519235281</v>
-      </c>
-      <c r="M37" s="1">
-        <v>15</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0.97421285397863</v>
-      </c>
-      <c r="O37" s="1">
-        <v>10.662875551698599</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.2204293815825</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S37" s="1">
-        <v>106.67862227310199</v>
-      </c>
-      <c r="T37" s="1">
-        <v>17</v>
-      </c>
-      <c r="U37" s="1">
-        <v>0.96903044617947198</v>
-      </c>
-      <c r="V37" s="1">
-        <v>9.88700095697242</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0.244989047919104</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>71.631630301270405</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>36</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>0.96355858279533302</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>6.1174964105415199</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>0.262752422960362</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>66.181578070915705</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>42</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>0.952292861957308</v>
-      </c>
-      <c r="AJ37" s="1">
-        <v>5.2290047896348897</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>0.95454545454545403</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0.257163861133615</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="AN37" s="1">
-        <v>63.867169743099097</v>
-      </c>
-      <c r="AO37" s="1">
-        <v>44</v>
-      </c>
-      <c r="AP37" s="1">
-        <v>0.949046086452626</v>
-      </c>
-      <c r="AQ37" s="1">
-        <v>5.7691010718624698</v>
-      </c>
-      <c r="AR37" s="1">
-        <v>0.56756756756756699</v>
-      </c>
-      <c r="AS37" s="1">
-        <v>0.33323581480481201</v>
-      </c>
-      <c r="AT37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="AU37" s="1">
-        <v>71.733296212723602</v>
-      </c>
-      <c r="AV37" s="1">
-        <v>37</v>
-      </c>
-      <c r="AW37" s="1">
-        <v>0.97752586098520999</v>
-      </c>
-      <c r="AX37" s="1">
-        <v>5.2290047896348897</v>
-      </c>
-      <c r="AY37" s="1">
-        <v>0.90476190476190399</v>
-      </c>
-      <c r="AZ37" s="1">
-        <v>0.30648948300176998</v>
-      </c>
-      <c r="BA37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="BB37" s="1">
-        <v>89.294271069557198</v>
-      </c>
-      <c r="BC37" s="1">
-        <v>21</v>
-      </c>
-      <c r="BD37" s="1">
-        <v>0.98156316127101995</v>
-      </c>
-      <c r="BE37" s="1">
-        <v>5.7691010718624698</v>
-      </c>
-      <c r="BF37" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BG37" s="1">
-        <v>0.35126924115581898</v>
-      </c>
-      <c r="BH37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="BI37" s="1">
-        <v>97.432980895180194</v>
-      </c>
-      <c r="BJ37" s="1">
-        <v>20</v>
-      </c>
-      <c r="BK37" s="1">
-        <v>0.97696010367861097</v>
-      </c>
-      <c r="BL37" s="1">
-        <v>6.1174964105415199</v>
-      </c>
-      <c r="BM37" s="1">
-        <v>0.97058823529411697</v>
-      </c>
-      <c r="BN37" s="1">
-        <v>0.28899990998289599</v>
-      </c>
-      <c r="BO37" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="BP37" s="1">
-        <v>73.048803668136003</v>
-      </c>
-      <c r="BQ37" s="1">
-        <v>34</v>
-      </c>
-      <c r="BR37" s="1">
-        <v>0.97332000474371605</v>
-      </c>
-      <c r="BS37" s="1">
-        <v>7.4594871989274001</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
     </row>
     <row r="38" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.15868578919913201</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="E38" s="1">
-        <v>220.40216926859799</v>
-      </c>
-      <c r="F38" s="1">
-        <v>23</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.98590588702950799</v>
-      </c>
-      <c r="H38" s="1">
-        <v>17.7722481819447</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.95652173913043403</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.122047710238036</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.44718309859154898</v>
-      </c>
-      <c r="L38" s="1">
-        <v>226.19067587687499</v>
-      </c>
-      <c r="M38" s="1">
-        <v>23</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0.98183920445971495</v>
-      </c>
-      <c r="O38" s="1">
-        <v>16.699465465021198</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.91176470588235203</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0.13003716744913901</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0.37037037037037002</v>
-      </c>
-      <c r="S38" s="1">
-        <v>177.90484553470199</v>
-      </c>
-      <c r="T38" s="1">
-        <v>34</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0.97652476636236896</v>
-      </c>
-      <c r="V38" s="1">
-        <v>12.809001102273101</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0.95652173913043403</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0.206446647722592</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0.296296296296296</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>222.79092149096601</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>23</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0.980768293733559</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>12.809001102273101</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>0.27205251489443399</v>
-      </c>
-      <c r="AF38" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>190.656753023692</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0.97637868355027702</v>
-      </c>
-      <c r="AJ38" s="1">
-        <v>11.708511216585601</v>
-      </c>
-      <c r="AK38" s="1">
-        <v>0.75862068965517204</v>
-      </c>
-      <c r="AL38" s="1">
-        <v>0.25289652142876701</v>
-      </c>
-      <c r="AM38" s="1">
-        <v>0.26315789473684198</v>
-      </c>
-      <c r="AN38" s="1">
-        <v>199.569672285618</v>
-      </c>
-      <c r="AO38" s="1">
-        <v>29</v>
-      </c>
-      <c r="AP38" s="1">
-        <v>0.98144975963258196</v>
-      </c>
-      <c r="AQ38" s="1">
-        <v>10.8331869153286</v>
-      </c>
-      <c r="AR38" s="1">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="AS38" s="1">
-        <v>0.337596607912582</v>
-      </c>
-      <c r="AT38" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AU38" s="1">
-        <v>185.212355549986</v>
-      </c>
-      <c r="AV38" s="1">
-        <v>36</v>
-      </c>
-      <c r="AW38" s="1">
-        <v>0.98240366381901501</v>
-      </c>
-      <c r="AX38" s="1">
-        <v>9.8489485491630901</v>
-      </c>
-      <c r="AY38" s="1">
-        <v>0.75675675675675602</v>
-      </c>
-      <c r="AZ38" s="1">
-        <v>0.39749608763693201</v>
-      </c>
-      <c r="BA38" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="BB38" s="1">
-        <v>180.62486913259301</v>
-      </c>
-      <c r="BC38" s="1">
-        <v>37</v>
-      </c>
-      <c r="BD38" s="1">
-        <v>0.98251535913551902</v>
-      </c>
-      <c r="BE38" s="1">
-        <v>11.708511216585601</v>
-      </c>
-      <c r="BF38" s="1">
-        <v>0.94736842105263097</v>
-      </c>
-      <c r="BG38" s="1">
-        <v>0.34098560662218902</v>
-      </c>
-      <c r="BH38" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="BI38" s="1">
-        <v>180.008834199429</v>
-      </c>
-      <c r="BJ38" s="1">
-        <v>38</v>
-      </c>
-      <c r="BK38" s="1">
-        <v>0.98235496252529897</v>
-      </c>
-      <c r="BL38" s="1">
-        <v>9.8489485491630901</v>
-      </c>
-      <c r="BM38" s="1">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="BN38" s="1">
-        <v>0.42974734371139101</v>
-      </c>
-      <c r="BO38" s="1">
-        <v>0.157894736842105</v>
-      </c>
-      <c r="BP38" s="1">
-        <v>191.31765553818201</v>
-      </c>
-      <c r="BQ38" s="1">
-        <v>33</v>
-      </c>
-      <c r="BR38" s="1">
-        <v>0.98562512356846499</v>
-      </c>
-      <c r="BS38" s="1">
-        <v>9.8489485491630901</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
